--- a/biology/Botanique/Chaenomeles_speciosa/Chaenomeles_speciosa.xlsx
+++ b/biology/Botanique/Chaenomeles_speciosa/Chaenomeles_speciosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaenomeles speciosa, la fleur de pêche, est une espèce de plantes à fleurs de la famille des Rosacées, originaire de Chine.
-C'est un arbuste qui n'a pas de nom vernaculaire propre en français. Les horticulteurs utilisent le terme très général de Cognassier du Japon[N 1] ou de Cognassier à fleurs pour désigner toutes les Chaenomeles[N 2] horticoles cultivées (C. japonica, C. speciosa, et tous les hybrides entre les Chaenomeles). Pour éviter ces indéterminations, un site d'horticulture[1] a proposé l’appellation de « Cognassier splendide ».
-Dans son pays d'origine, désigné en mandarin par 皱皮木瓜 zhòupí mùguā (ou 贴梗海棠,tiēgěng hǎitáng), son fruit est utilisé depuis longtemps en médecine chinoise traditionnelle. Il est aussi cultivé dans les jardins chinois depuis les temps anciens[2].
+C'est un arbuste qui n'a pas de nom vernaculaire propre en français. Les horticulteurs utilisent le terme très général de Cognassier du Japon[N 1] ou de Cognassier à fleurs pour désigner toutes les Chaenomeles[N 2] horticoles cultivées (C. japonica, C. speciosa, et tous les hybrides entre les Chaenomeles). Pour éviter ces indéterminations, un site d'horticulture a proposé l’appellation de « Cognassier splendide ».
+Dans son pays d'origine, désigné en mandarin par 皱皮木瓜 zhòupí mùguā (ou 贴梗海棠,tiēgěng hǎitáng), son fruit est utilisé depuis longtemps en médecine chinoise traditionnelle. Il est aussi cultivé dans les jardins chinois depuis les temps anciens.
 Les très nombreux cultivars ornementaux de cette espèce sélectionnés au Japon puis en Europe, pour leur abondante floraison colorée, ont supplanté en jardinerie Chaenomeles japonica moins vigoureux. Ils sont cependant encore vendus sous le nom de « cognassier du Japon ».
 </t>
         </is>
@@ -514,7 +526,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaenomeles vient du grec « chaïnen », se fendre et « mêlea », pommier. Le créateur du genre Chaenomeles, le botaniste britannique, John Lindley, croyait que le fruit éclatait en cinq divisions, sur la foi de la première description donnée en langue occidentale par Carl Peter Thunberg, en 1784. Mais ce phénomène n'arrive que très rarement.
 Speciosa, speciosus du latin « de bel aspect » (Gaffiot).
@@ -546,10 +560,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Forme sauvage de Chine
-Chaenomeles speciosa est un arbuste épineux[3] de 2-3 mètres de haut, donc plus grand que C. japonica qui se situe autour de 1 mètre (dans sa forme sauvage).
+Chaenomeles speciosa est un arbuste épineux de 2-3 mètres de haut, donc plus grand que C. japonica qui se situe autour de 1 mètre (dans sa forme sauvage).
 Les stipules réniformes ou suborbiculaires sont assez grandes puisqu'elles font de 5 à 10 mm.
 Les feuilles caduques, elliptiques à lancéolées (donc plus étroites que celles de C. japonica), de 3-9 × 1,5-5 cm, sont portées par un pétiole de 1 cm. La base est cunée et la marge est serrulée.
 Les fleurs précoces font 3-5 cm de diamètre. Portées par un pédicelle très court voire absent, elles sont groupées par 3-5 en fascicules sur les rameaux de l'année passée.
@@ -558,8 +574,8 @@
 Le "faux-fruit" pommacé fait 4-6 cm de diamètre (plus gros que celui de C. japonica). Il est très odorant, de couleur jaune ou vert jaunâtre.
 Cultivars
 Chaenomeles speciosa a été importée de Chine au Japon vers 1550 où les horticulteurs sélectionnèrent des cultivars aux fleurs éclatantes. Ils créèrent aussi des cultivars d'hybrides avec l'espèce endémique du Japon C. japonica.
-L'espèce Chaenomeles speciosa fut importée en Europe[2], par Joseph Banks, via l'Angleterre, en 1796. Mais à l'époque Banks avait cru importer C. japonica qui venait d'être décrite par Thunberg sous le nom de Pyrus japonica[4] et qui n'était pas distinguée par les botanistes de C. speciosa. En 1815, Loiseleur-Deslongchamps se rendit compte que deux espèces d'arbustes différentes été décrites sous le même nom de Pyrus (Cydonia) japonica et proposa d'appeler l'espèce chinoise Cydonia lagenaria. Mais en raison d'une erreur de synonymie, ce nom ne fut pas adopté. Le nom correct Chaenomeles speciosa fut donné par Nakai en 1929, sur la base de Cydonia speciosa Sweet.
-L'étude des marqueurs génétiques et des caractères morphologiques sur des populations de Chaenomeles a permis de distinguer fermement Chaenomeles japonica des espèces chinoises C. speciosa, cathayensis, thibetica[5].
+L'espèce Chaenomeles speciosa fut importée en Europe, par Joseph Banks, via l'Angleterre, en 1796. Mais à l'époque Banks avait cru importer C. japonica qui venait d'être décrite par Thunberg sous le nom de Pyrus japonica et qui n'était pas distinguée par les botanistes de C. speciosa. En 1815, Loiseleur-Deslongchamps se rendit compte que deux espèces d'arbustes différentes été décrites sous le même nom de Pyrus (Cydonia) japonica et proposa d'appeler l'espèce chinoise Cydonia lagenaria. Mais en raison d'une erreur de synonymie, ce nom ne fut pas adopté. Le nom correct Chaenomeles speciosa fut donné par Nakai en 1929, sur la base de Cydonia speciosa Sweet.
+L'étude des marqueurs génétiques et des caractères morphologiques sur des populations de Chaenomeles a permis de distinguer fermement Chaenomeles japonica des espèces chinoises C. speciosa, cathayensis, thibetica.
 Le groupe Superba ou Chaenomeles ×superba (Frahm) Rehder 1920 est issu d'un hybride C. japonica × C. speciosa obtenu vers 1900 par G. Frahm dans une pépinière allemande. Il porte des rameaux épineux et des fleurs de 3 à 5 cm de diamètre. Cet hybride est généralement nommé par les horticulteurs « Cognassier à fleurs » ou « Cognassier 'Superbe' » ou « Cognassier du Japon »[N 3]. De nombreux cultivars en ont été tirés, comme des cultivars à floraison rouge ('Boule de Feu', 'Crimson and Gold', 'Elly Mossel', 'Etna' etc.), orange ('Clementine', 'Coral Sea'), rose ('Pink Lady', 'Pink Trail'), saumon ('Cameo' double), blanc ('Jet Trail', 'Kinshiden' vert double)
 </t>
         </is>
@@ -589,7 +605,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C. speciosa croît naturellement en Chine (Fujian, Gansu, Guangdong, Guizhou, Hubei, Jiangsu, Shaanxi, Sichuan, Tibet, Yunnan) ainsi qu'au Myanmar.
 Les nombreux cultivars ornementaux sélectionnés par les horticulteurs sont cultivés en Asie tempérée, Europe et Amérique du nord.
@@ -621,13 +639,15 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ornemental
 Les cultivars de C. speciosa sont des arbustes touffus et vigoureux qui peuvent être plantés isolés ou en haie. Ils sont rustiques (jusqu'à -20 °C) et apprécient le soleil ou la mi-ombre.
 Médicinal
 En mandarin, mùguā 木瓜 désigne soit les arbustes du genre Chaenomeles, originaire des régions tempérées de Chine soit la papaye, le fruit du papayer (Carica papaya), originaire du Mexique. La confusion n'est pas rare.
-Suivant la pharmacopée chinoise[6] mùguā 木瓜  (Fructus chaenomeles), le fruit du cognassier à fleurs, possède les fonctions et les indications suivantes :
+Suivant la pharmacopée chinoise mùguā 木瓜  (Fructus chaenomeles), le fruit du cognassier à fleurs, possède les fonctions et les indications suivantes :
 Fonctions :
 « disperse le vent et l'humidité[N 4], régule l'estomac et améliore la digestion »
 « active la circulation du qi et du sang, relaxe les muscles et les tendons »
@@ -637,8 +657,8 @@
 « dyspepsie, vomissement, diarrhée »
 Il est souvent prescrit en association avec d'autres herbes médicinales. En cas de crampes musculaires, il est combiné avec Dang-gui et Bai-shao-yao.
 Affinités : foie, rate.
-La Commission de Pharmacopée chinoise[7] (2005) le recommande pour le traitement de la polyarthrite rhumatoïde, la prosopalgie (névralgie faciale) et l'hépatite.
-L'étude par chromatographie[8] du fruit de C. speciosa a révélé la présence d'acide 3,4-dihydroxybenzoïque, de quercétol, d'ester méthylique d'acide 3-hydroxybutanedioique, d'acide oléanolique etc. Les deux premiers constituants sont des polyphénols qui possèdent une activité antioxydante significative, mesurée par le piégeage des radicaux libres à l'aide du DPPH•.
+La Commission de Pharmacopée chinoise (2005) le recommande pour le traitement de la polyarthrite rhumatoïde, la prosopalgie (névralgie faciale) et l'hépatite.
+L'étude par chromatographie du fruit de C. speciosa a révélé la présence d'acide 3,4-dihydroxybenzoïque, de quercétol, d'ester méthylique d'acide 3-hydroxybutanedioique, d'acide oléanolique etc. Les deux premiers constituants sont des polyphénols qui possèdent une activité antioxydante significative, mesurée par le piégeage des radicaux libres à l'aide du DPPH•.
 </t>
         </is>
       </c>
@@ -667,7 +687,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(=) Chaenomeles lagenaria auct.
 (≡) Cydonia speciosa Sweet (basionyme)</t>
